--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5C3D8E1-BD73-4200-A40C-292626E8484D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2540" windowWidth="22820" windowHeight="16180"/>
+    <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>接口描述</t>
   </si>
@@ -62,12 +63,28 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,21 +480,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.5" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -499,43 +516,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1">
+    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1">
+    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1">
+    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1">
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -548,288 +577,288 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1">
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1">
+    <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="16" customHeight="1">
+    <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="16" customHeight="1">
+    <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="16" customHeight="1">
+    <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="16" customHeight="1">
+    <row r="21" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="16" customHeight="1">
+    <row r="23" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="16" customHeight="1">
+    <row r="24" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="16" customHeight="1">
+    <row r="25" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="16" customHeight="1">
+    <row r="26" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:4" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="27" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:4" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="29" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:4" ht="16" customHeight="1">
+    <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+    <row r="32" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="34" spans="1:4" s="9" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="C34"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="16" customHeight="1">
+    <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="16" customHeight="1">
+    <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:4" ht="16" customHeight="1">
+    <row r="37" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:4" ht="16" customHeight="1">
+    <row r="38" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:4" ht="16" customHeight="1">
+    <row r="39" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:4" ht="16" customHeight="1">
+    <row r="40" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="16" customHeight="1">
+    <row r="41" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="16" customHeight="1">
+    <row r="42" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="16" customHeight="1">
+    <row r="43" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
     </row>
-    <row r="44" spans="1:4" ht="16" customHeight="1">
+    <row r="44" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:4" ht="16" customHeight="1">
+    <row r="45" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:4" ht="16" customHeight="1">
+    <row r="46" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:4" ht="16" customHeight="1">
+    <row r="47" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="16" customHeight="1">
+    <row r="48" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:4" ht="16" customHeight="1">
+    <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:4" ht="16" customHeight="1">
+    <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="16" customHeight="1">
+    <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:4" ht="16" customHeight="1">
+    <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:4" ht="16" customHeight="1">
+    <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="16" customHeight="1">
+    <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:4" ht="16" customHeight="1">
+    <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:4" ht="16" customHeight="1">
+    <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:4" ht="16" customHeight="1">
+    <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:4" ht="16" customHeight="1">
+    <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:4" ht="16" customHeight="1">
+    <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:4" ht="16" customHeight="1">
+    <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:4" ht="16" customHeight="1">
+    <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:4" ht="16" customHeight="1">
+    <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:4" ht="16" customHeight="1">
+    <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:4" ht="16" customHeight="1">
+    <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:4" ht="16" customHeight="1">
+    <row r="65" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="16" customHeight="1">
+    <row r="66" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="16" customHeight="1">
+    <row r="67" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:4" ht="16" customHeight="1">
+    <row r="68" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:4" ht="16" customHeight="1">
+    <row r="69" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="16" customHeight="1">
+    <row r="70" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="16" customHeight="1">
+    <row r="71" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="16" customHeight="1">
+    <row r="72" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="16" customHeight="1">
+    <row r="73" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="16" customHeight="1">
+    <row r="74" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="16" customHeight="1">
+    <row r="75" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="16" customHeight="1">
+    <row r="76" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
     </row>
-    <row r="77" spans="1:4" ht="16" customHeight="1">
+    <row r="77" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
     </row>
-    <row r="78" spans="1:4" ht="16" customHeight="1">
+    <row r="78" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
     </row>
-    <row r="79" spans="1:4" ht="16" customHeight="1">
+    <row r="79" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
     </row>
-    <row r="80" spans="1:4" ht="16" customHeight="1">
+    <row r="80" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
     </row>
-    <row r="81" spans="1:1" ht="16" customHeight="1">
+    <row r="81" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
     </row>
-    <row r="82" spans="1:1" ht="16" customHeight="1">
+    <row r="82" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
     </row>
-    <row r="83" spans="1:1" ht="16" customHeight="1">
+    <row r="83" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
     </row>
-    <row r="84" spans="1:1" ht="16" customHeight="1">
+    <row r="84" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
     </row>
-    <row r="85" spans="1:1" ht="16" customHeight="1">
+    <row r="85" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
     </row>
-    <row r="86" spans="1:1" ht="16" customHeight="1">
+    <row r="86" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
     </row>
-    <row r="87" spans="1:1" ht="16" customHeight="1">
+    <row r="87" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
     </row>
-    <row r="88" spans="1:1" ht="16" customHeight="1">
+    <row r="88" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
     </row>
-    <row r="89" spans="1:1" ht="16" customHeight="1">
+    <row r="89" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
     </row>
-    <row r="90" spans="1:1" ht="16" customHeight="1">
+    <row r="90" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
     </row>
-    <row r="91" spans="1:1" ht="16" customHeight="1">
+    <row r="91" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
     </row>
-    <row r="92" spans="1:1" ht="16" customHeight="1">
+    <row r="92" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
     </row>
-    <row r="93" spans="1:1" ht="16" customHeight="1">
+    <row r="93" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
     </row>
-    <row r="94" spans="1:1" ht="16" customHeight="1">
+    <row r="94" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
     </row>
-    <row r="95" spans="1:1" ht="33" customHeight="1">
+    <row r="95" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
     </row>
-    <row r="96" spans="1:1" ht="34" customHeight="1">
+    <row r="96" spans="1:1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
     </row>
-    <row r="97" spans="1:3" ht="16" customHeight="1">
+    <row r="97" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="16" customHeight="1">
+    <row r="98" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="16" customHeight="1">
+    <row r="99" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
     </row>
-    <row r="100" spans="1:3" ht="16" customHeight="1">
+    <row r="100" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
     </row>
-    <row r="101" spans="1:3" ht="16" customHeight="1">
+    <row r="101" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
     </row>
-    <row r="102" spans="1:3" ht="16" customHeight="1">
+    <row r="102" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="C102" s="3"/>
     </row>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5C3D8E1-BD73-4200-A40C-292626E8484D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F61D68AC-9CD8-41D0-9C67-716BEF4D5039}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>接口描述</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username，password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +496,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -515,6 +527,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -524,6 +539,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -532,6 +550,9 @@
       </c>
       <c r="C4" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F61D68AC-9CD8-41D0-9C67-716BEF4D5039}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E8D4412-5ED4-4B1A-BA40-3ED3B5212EFF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>接口描述</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/task/commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +81,22 @@
   </si>
   <si>
     <t>必填name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +504,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -525,38 +533,44 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -588,13 +602,13 @@
     <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="E15" s="3"/>
     </row>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E8D4412-5ED4-4B1A-BA40-3ED3B5212EFF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B76A4946-41A7-4ACD-87B3-7DB280F3CA44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>接口描述</t>
   </si>
@@ -72,31 +72,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username，password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询所有用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/display</t>
+    <t>图片管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String name(必填)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String username，String password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String place(图片用在哪里)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/updata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/updata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.3"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -152,25 +205,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11.3"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,23 +229,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -501,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -526,21 +557,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -548,370 +579,376 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="C26" s="2"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="C34"/>
-      <c r="D34" s="1"/>
+      <c r="A29" s="8"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="7"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="7"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="7"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="7"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="7"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="7"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="7"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="7"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="7"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="7"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="7"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-    </row>
-    <row r="68" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-    </row>
-    <row r="77" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-    </row>
-    <row r="79" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-    </row>
-    <row r="80" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-    </row>
-    <row r="81" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-    </row>
-    <row r="82" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-    </row>
-    <row r="83" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-    </row>
-    <row r="84" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-    </row>
-    <row r="85" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-    </row>
-    <row r="86" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-    </row>
-    <row r="87" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-    </row>
-    <row r="88" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-    </row>
-    <row r="89" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-    </row>
-    <row r="90" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-    </row>
-    <row r="91" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-    </row>
-    <row r="92" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-    </row>
-    <row r="93" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-    </row>
-    <row r="94" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-    </row>
-    <row r="95" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-    </row>
-    <row r="96" spans="1:1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-    </row>
-    <row r="97" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-    </row>
-    <row r="100" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-    </row>
-    <row r="101" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-    </row>
-    <row r="102" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="C102" s="3"/>
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="C90" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A44:A47"/>
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A66:A73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B76A4946-41A7-4ACD-87B3-7DB280F3CA44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{277B9991-8D56-4ACB-9B3D-BDF93042A560}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>接口描述</t>
   </si>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/updata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/updata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +149,18 @@
   </si>
   <si>
     <t>必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEntity userEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +539,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -564,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -588,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -600,19 +604,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,37 +682,37 @@
     <row r="20" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{277B9991-8D56-4ACB-9B3D-BDF93042A560}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F619C19D-5966-4464-8BD2-0224C05DCD35}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>接口描述</t>
   </si>
@@ -45,21 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/task/commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String tid, String examineid, String examinename, long examinestatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <rPh sb="0" eb="2">
-      <t>shi'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String name(必填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String username，String password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userEntity userEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,13 +139,43 @@
   <si>
     <t>/photo/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String title, String src, String description, String place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String name, String password, String account, int role, int valid, String gender, String jobtitle, String idcard, String birthdate, String description, String photo, int jobtitlenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过id查询用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/seaarchById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/page</t>
+  </si>
+  <si>
+    <t>String page, String size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +211,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -244,7 +243,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -536,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,7 +547,7 @@
     <col min="4" max="4" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -560,399 +558,395 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="D30" s="1"/>
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="6"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="6"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="6"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-    </row>
-    <row r="79" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="80" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A82" s="6"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="C85" s="2"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="A86" s="6"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="C90" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A79:A90"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A44:A47"/>
+  <mergeCells count="12">
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A40:A43"/>
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A62:A69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F619C19D-5966-4464-8BD2-0224C05DCD35}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F40ECF2-76C6-46A6-8675-0601BAAE3B3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>接口描述</t>
   </si>
@@ -73,18 +73,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String username，String password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String place(图片用在哪里)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/photo/del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/photo/create</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String title, String src, String description, String place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String name, String password, String account, int role, int valid, String gender, String jobtitle, String idcard, String birthdate, String description, String photo, int jobtitlenum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过id查询用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +149,22 @@
   </si>
   <si>
     <t>String page, String size</t>
+  </si>
+  <si>
+    <t>String zh，String mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String xm, String mm, String zh, int js, int sfyx, int xb, String zw, String sfz, String ms, String zp, int zwdjpx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String tpbt, String tplj, String tpms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoEntity photoEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,7 +533,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -566,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -581,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -590,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,43 +598,43 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,44 +665,41 @@
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F40ECF2-76C6-46A6-8675-0601BAAE3B3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6160" yWindow="2540" windowWidth="22820" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,21 +528,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="4" max="4" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -568,7 +567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>5</v>
@@ -580,7 +579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -592,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -601,7 +600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -613,7 +612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
@@ -625,7 +624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>29</v>
@@ -637,309 +636,269 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" customHeight="1">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1">
+      <c r="A19" s="6"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="20" spans="1:4" ht="16" customHeight="1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" customHeight="1">
+      <c r="A25" s="6"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" customHeight="1">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" customHeight="1">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" customHeight="1">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" customHeight="1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" customHeight="1">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" ht="16" customHeight="1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" customHeight="1">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" ht="16" customHeight="1">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" customHeight="1">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" customHeight="1">
       <c r="A37" s="6"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" customHeight="1">
       <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" customHeight="1">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" customHeight="1">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" customHeight="1">
       <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" customHeight="1">
       <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" customHeight="1">
       <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" customHeight="1">
       <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" customHeight="1">
       <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" customHeight="1">
       <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" customHeight="1">
       <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" customHeight="1">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="16" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" ht="16" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" ht="16" customHeight="1">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="16" customHeight="1">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="16" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" ht="16" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" ht="16" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" ht="16" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" ht="16" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" ht="16" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" ht="16" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" ht="16" customHeight="1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="16" customHeight="1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="16" customHeight="1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="16" customHeight="1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="16" customHeight="1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="16" customHeight="1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="16" customHeight="1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="33" customHeight="1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="34" customHeight="1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="16" customHeight="1">
       <c r="A69" s="6"/>
-    </row>
-    <row r="70" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" ht="16" customHeight="1">
       <c r="A70" s="6"/>
-    </row>
-    <row r="71" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" ht="16" customHeight="1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="16" customHeight="1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="16" customHeight="1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="16" customHeight="1">
       <c r="A74" s="6"/>
-    </row>
-    <row r="75" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-    </row>
-    <row r="76" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-    </row>
-    <row r="77" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-    </row>
-    <row r="78" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-    </row>
-    <row r="79" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-    </row>
-    <row r="80" spans="1:1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-    </row>
-    <row r="84" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-    </row>
-    <row r="85" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="C86" s="2"/>
+      <c r="C74" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A50:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6E7872F-2A5D-473C-AD87-89D2C3965490}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2540" windowWidth="22820" windowHeight="16180"/>
+    <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>接口描述</t>
   </si>
@@ -68,18 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userEntity userEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过id查询用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,23 +139,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String xm, String mm, String zh, int js, int sfyx, int xb, String zw, String sfz, String ms, String zp, int zwdjpx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String tpbt, String tplj, String tpms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>photoEntity photoEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banner/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banner/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banner/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banner/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String xm, String mm, String zh, int js, int sfyx, int xb, String zw, String sfzh, String ms, String zp, int zwdjpx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/newsupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsEntity newsEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String xwbt, String tplj, String xwnr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stringzh，String page, String size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,21 +585,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.5" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1">
+    <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
+    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -561,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>5</v>
@@ -576,70 +633,70 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -647,241 +704,285 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="16" customHeight="1">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1">
+    <row r="15" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1">
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" customHeight="1">
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" customHeight="1">
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="16" customHeight="1">
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="16" customHeight="1">
+    <row r="21" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="16" customHeight="1">
+    <row r="22" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="16" customHeight="1">
+    <row r="23" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="16" customHeight="1">
+    <row r="24" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="16" customHeight="1">
+    <row r="25" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="16" customHeight="1">
+    <row r="26" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="16" customHeight="1">
+    <row r="27" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="16" customHeight="1">
+    <row r="28" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="16" customHeight="1">
+    <row r="29" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="16" customHeight="1">
+    <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="16" customHeight="1">
+    <row r="31" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="16" customHeight="1">
+    <row r="32" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="16" customHeight="1">
+    <row r="33" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="16" customHeight="1">
+    <row r="34" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="16" customHeight="1">
+    <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="16" customHeight="1">
+    <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="16" customHeight="1">
+    <row r="37" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="16" customHeight="1">
+    <row r="38" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="16" customHeight="1">
+    <row r="39" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="16" customHeight="1">
+    <row r="40" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="16" customHeight="1">
+    <row r="41" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="16" customHeight="1">
+    <row r="42" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="16" customHeight="1">
+    <row r="43" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="16" customHeight="1">
+    <row r="44" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="16" customHeight="1">
+    <row r="45" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="16" customHeight="1">
+    <row r="46" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="16" customHeight="1">
+    <row r="47" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="16" customHeight="1">
+    <row r="48" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" ht="16" customHeight="1">
+    <row r="49" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" ht="16" customHeight="1">
+    <row r="50" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" ht="16" customHeight="1">
+    <row r="51" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" ht="16" customHeight="1">
+    <row r="52" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" ht="16" customHeight="1">
+    <row r="53" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" ht="16" customHeight="1">
+    <row r="54" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" ht="16" customHeight="1">
+    <row r="55" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" ht="16" customHeight="1">
+    <row r="56" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" ht="16" customHeight="1">
+    <row r="57" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" ht="16" customHeight="1">
+    <row r="58" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" ht="16" customHeight="1">
+    <row r="59" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" ht="16" customHeight="1">
+    <row r="60" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" ht="16" customHeight="1">
+    <row r="61" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" ht="16" customHeight="1">
+    <row r="62" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" ht="16" customHeight="1">
+    <row r="63" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" ht="16" customHeight="1">
+    <row r="64" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:3" ht="16" customHeight="1">
+    <row r="65" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:3" ht="16" customHeight="1">
+    <row r="66" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:3" ht="33" customHeight="1">
+    <row r="67" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:3" ht="34" customHeight="1">
+    <row r="68" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:3" ht="16" customHeight="1">
+    <row r="69" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" ht="16" customHeight="1">
+    <row r="70" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" ht="16" customHeight="1">
+    <row r="71" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:3" ht="16" customHeight="1">
+    <row r="72" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:3" ht="16" customHeight="1">
+    <row r="73" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:3" ht="16" customHeight="1">
+    <row r="74" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="C74" s="2"/>
     </row>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6E7872F-2A5D-473C-AD87-89D2C3965490}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{834CCAFE-2CD3-4CFC-A015-FFF65F7EAA52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>接口描述</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userEntity userEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,14 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String tpbt, String tplj, String tpms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoEntity photoEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/banner/display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String xm, String mm, String zh, int js, int sfyx, int xb, String zw, String sfzh, String ms, String zp, int zwdjpx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>newsEntity newsEntity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String xwbt, String tplj, String xwnr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +196,18 @@
   </si>
   <si>
     <t>Stringzh，String page, String size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoEntity photoEntity，file tpfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEntity userEntity，file zpfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsEntity newsEntity，file xwtpfile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,7 +609,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,34 +651,34 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -725,10 +713,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,10 +725,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,23 +737,23 @@
     </row>
     <row r="15" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
@@ -774,37 +762,37 @@
     <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{834CCAFE-2CD3-4CFC-A015-FFF65F7EAA52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E47FF2B-417E-4ABD-B742-325F956E564E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>接口描述</t>
   </si>
@@ -57,18 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询所有用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/banner/display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/banner/del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/news/display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/news/del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,18 +163,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新闻显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/news/page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stringzh，String page, String size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>photoEntity photoEntity，file tpfile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +177,40 @@
   <si>
     <t>newsEntity newsEntity，file xwtpfile</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date begin,Date end,String condition</t>
+  </si>
+  <si>
+    <t>/news/search</t>
+  </si>
+  <si>
+    <t>String zh，String page, String size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/changePassword</t>
+  </si>
+  <si>
+    <t>String oldpwd, String newpwd</t>
+  </si>
+  <si>
+    <t>/user/resetPassword</t>
+  </si>
+  <si>
+    <t>String id</t>
   </si>
 </sst>
 </file>
@@ -272,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,9 +291,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +576,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -606,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,105 +629,109 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="D5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,62 +740,64 @@
     </row>
     <row r="15" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,8 +984,8 @@
     <mergeCell ref="A63:A74"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A47:A49"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E47FF2B-417E-4ABD-B742-325F956E564E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06D12B0F-71A5-441A-A8F5-4B5C182F742E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>接口描述</t>
   </si>
@@ -211,6 +211,48 @@
   </si>
   <si>
     <t>String id</t>
+  </si>
+  <si>
+    <t>公告管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcementEntity announcementEntity, MultipartFile ggdzfile,</t>
+  </si>
+  <si>
+    <t>int lx,int page, int size</t>
   </si>
 </sst>
 </file>
@@ -575,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -811,17 +853,54 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="D25" s="1"/>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06D12B0F-71A5-441A-A8F5-4B5C182F742E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE9EBAC0-494A-47FD-B0DD-EF9DB83F3408}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>接口描述</t>
   </si>
@@ -253,6 +253,29 @@
   </si>
   <si>
     <t>int lx,int page, int size</t>
+  </si>
+  <si>
+    <t>公司信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ompanyEntity companyEntity, MultipartFile gstbfile</t>
   </si>
 </sst>
 </file>
@@ -617,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -906,10 +929,27 @@
       <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE9EBAC0-494A-47FD-B0DD-EF9DB83F3408}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{296B7FC0-8933-48C4-A111-CC1363699774}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>接口描述</t>
   </si>
@@ -276,6 +276,47 @@
   </si>
   <si>
     <t>ompanyEntity companyEntity, MultipartFile gstbfile</t>
+  </si>
+  <si>
+    <t>发展历程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/page</t>
+  </si>
+  <si>
+    <t>发展历程增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date fzlcsj, int page, int size</t>
+  </si>
+  <si>
+    <t>developmentEntity developmentEntity</t>
   </si>
 </sst>
 </file>
@@ -640,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,16 +999,54 @@
       <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{296B7FC0-8933-48C4-A111-CC1363699774}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52D5769F-ECDA-4034-BBCA-F2F5DAEF1A73}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>接口描述</t>
   </si>
@@ -175,155 +175,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>newsEntity newsEntity，file xwtpfile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/news/search</t>
+  </si>
+  <si>
+    <t>String zh，String page, String size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/changePassword</t>
+  </si>
+  <si>
+    <t>String oldpwd, String newpwd</t>
+  </si>
+  <si>
+    <t>/user/resetPassword</t>
+  </si>
+  <si>
+    <t>String id</t>
+  </si>
+  <si>
+    <t>公告管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ann/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcementEntity announcementEntity, MultipartFile ggdzfile,</t>
+  </si>
+  <si>
+    <t>int lx,int page, int size</t>
+  </si>
+  <si>
+    <t>公司信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展历程删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developmentEntity developmentEntity</t>
+  </si>
+  <si>
+    <t>轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/development/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newsEntity newsEntity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，file xwtpfile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Date begin,Date end,String condition</t>
-  </si>
-  <si>
-    <t>/news/search</t>
-  </si>
-  <si>
-    <t>String zh，String page, String size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员重置密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/changePassword</t>
-  </si>
-  <si>
-    <t>String oldpwd, String newpwd</t>
-  </si>
-  <si>
-    <t>/user/resetPassword</t>
-  </si>
-  <si>
-    <t>String id</t>
-  </si>
-  <si>
-    <t>公告管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ann/page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ann/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ann/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ann/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>announcementEntity announcementEntity, MultipartFile ggdzfile,</t>
-  </si>
-  <si>
-    <t>int lx,int page, int size</t>
-  </si>
-  <si>
-    <t>公司信息管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司信息显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司信息修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/company/display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/company/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ompanyEntity companyEntity, MultipartFile gstbfile</t>
-  </si>
-  <si>
-    <t>发展历程管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展历程显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/development/page</t>
-  </si>
-  <si>
-    <t>发展历程增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展历程修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展历程删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/development/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/development/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/development/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date fzlcsj, int page, int size</t>
-  </si>
-  <si>
-    <t>developmentEntity developmentEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>companyEntity companyEntity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, MultipartFile gstbfile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>photoEntity photoEntity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，file tpfile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id、zh必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh、mm必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +461,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,6 +516,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -679,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -692,7 +811,7 @@
     <col min="4" max="4" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -716,8 +835,11 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>5</v>
@@ -725,11 +847,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -737,11 +859,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -752,8 +874,11 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -761,11 +886,11 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -774,49 +899,51 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -827,8 +954,11 @@
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -837,28 +967,28 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -866,11 +996,11 @@
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>33</v>
@@ -879,10 +1009,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -891,10 +1024,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -902,246 +1035,266 @@
       <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
       <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,47 +1303,53 @@
     <row r="66" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="C76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="A60:A64"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A52:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52D5769F-ECDA-4034-BBCA-F2F5DAEF1A73}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D5FDCB84-27A7-498A-AD84-CB9A08B97CB3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>接口描述</t>
   </si>
@@ -112,9 +112,6 @@
     <t>/user/page</t>
   </si>
   <si>
-    <t>String page, String size</t>
-  </si>
-  <si>
     <t>String zh，String mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +179,6 @@
     <t>/news/search</t>
   </si>
   <si>
-    <t>String zh，String page, String size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员重置密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,9 +236,6 @@
   </si>
   <si>
     <t>announcementEntity announcementEntity, MultipartFile ggdzfile,</t>
-  </si>
-  <si>
-    <t>int lx,int page, int size</t>
   </si>
   <si>
     <t>公司信息管理</t>
@@ -419,6 +409,86 @@
   <si>
     <t>zh、mm必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int page, int size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String zh，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int page, int size</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int lx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,int page, int size</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/page</t>
+  </si>
+  <si>
+    <t>/business/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int ywlx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int page, int size,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessEntity businessEntity, MultipartFile ywtpfile,</t>
   </si>
 </sst>
 </file>
@@ -510,14 +580,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -800,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -823,7 +893,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -833,38 +903,38 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -872,26 +942,26 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -899,441 +969,468 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>72</v>
+      <c r="A11" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>79</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="8" t="s">
+    <row r="20" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="8"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="8"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="8"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="8"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="8"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="A49" s="8"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="8"/>
     </row>
     <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="8"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="8"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="A76" s="8"/>
       <c r="C76" s="2"/>
     </row>
   </sheetData>

--- a/巨龙网站接口文档.xlsx
+++ b/巨龙网站接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D5FDCB84-27A7-498A-AD84-CB9A08B97CB3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E032AD9-9EA7-4AB0-96F0-2230552B4C1F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="2544" windowWidth="22824" windowHeight="16176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>接口描述</t>
   </si>
@@ -490,12 +490,95 @@
   <si>
     <t>businessEntity businessEntity, MultipartFile ywtpfile,</t>
   </si>
+  <si>
+    <t>图片显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banner/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景巨龙管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qjjl/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qjjl/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qjjl/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qjjl/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String bt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int page, int size,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qjjlEntity qjjlEntity, MultipartFile sntfile,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,12 +607,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.3"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -567,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -575,13 +652,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -893,7 +967,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -905,222 +979,228 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
@@ -1129,54 +1209,54 @@
       <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
@@ -1187,28 +1267,28 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
@@ -1219,57 +1299,57 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B39" t="s">
@@ -1283,154 +1363,191 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="7"/>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="7"/>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="7"/>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="7"/>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="7"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="7"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="7"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="7"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="7"/>
     </row>
     <row r="74" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="7"/>
     </row>
     <row r="75" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
     </row>
     <row r="76" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="7"/>
       <c r="C76" s="2"/>
     </row>
   </sheetData>
